--- a/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/PV-Test-03.xlsx
+++ b/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/PV-Test-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Development/PycharmProjects/plan_visualiser_2023_02/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B040AE5E-8415-4749-972B-320C5520CCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DB004-1E4D-9848-9881-A286684E1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,21 +23,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
-    <t>Unique Sticky ID</t>
-  </si>
-  <si>
     <t>Level #</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
     <t>Predecessors</t>
   </si>
   <si>
@@ -119,7 +110,16 @@
     <t>6</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Row ID</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -568,51 +568,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>44927</v>
@@ -628,16 +628,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>44928</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>44928</v>
@@ -678,16 +678,16 @@
     </row>
     <row r="5" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4">
         <v>44928</v>
@@ -696,7 +696,7 @@
         <v>44939</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="5"/>
@@ -705,16 +705,16 @@
     </row>
     <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>44942</v>
@@ -723,7 +723,7 @@
         <v>44946</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="5"/>
@@ -732,16 +732,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>44949</v>
@@ -750,7 +750,7 @@
         <v>44953</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="5"/>
@@ -759,16 +759,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4">
         <v>44956</v>
@@ -777,7 +777,7 @@
         <v>44967</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="5"/>

--- a/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/PV-Test-03.xlsx
+++ b/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/PV-Test-03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Development/PycharmProjects/plan_visualiser_2023_02/plan_visual_django/tests/resources/input_files/excel_plan_files_reimport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DB004-1E4D-9848-9881-A286684E1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A3769-6E49-2248-A8C6-7C51E4BE17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,16 +110,16 @@
     <t>6</t>
   </si>
   <si>
-    <t>Row ID</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
